--- a/result/result_191008_xiehe/information_people.xlsx
+++ b/result/result_191008_xiehe/information_people.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xugang/Documents/c-pycharm/git/sequencing_center/result/result_191008_xiehe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F866DE2-41DF-864C-9099-768F952179F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD14A878-AEE9-A040-B8A2-950DD5D4D971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15400" xr2:uid="{C6039C57-40C4-324F-8FB5-D1DD80537CC4}"/>
+    <workbookView xWindow="-29940" yWindow="-2520" windowWidth="27840" windowHeight="15400" activeTab="1" xr2:uid="{C6039C57-40C4-324F-8FB5-D1DD80537CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
   <si>
     <t>中药-过敏-pbmc</t>
   </si>
@@ -679,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E63FC5-2A30-5B4E-8E77-6F70E9467202}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="49" thickBot="1">
+    <row r="1" spans="1:7" ht="49" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,44 +700,566 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1">
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" thickBot="1">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1022.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" thickBot="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1555.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" thickBot="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2291.8000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" thickBot="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>971.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" thickBot="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1008.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" thickBot="1">
+      <c r="A10" s="4">
         <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" thickBot="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1585.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33" thickBot="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1345.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" thickBot="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1">
+        <v>514.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" thickBot="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1">
+        <v>785.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" thickBot="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1">
+        <v>490.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33" thickBot="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1054.0999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33" thickBot="1">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1">
+        <v>977.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" thickBot="1">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1">
+        <v>633.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33" thickBot="1">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1">
+        <v>580.79999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33" thickBot="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33" thickBot="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="1">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369A022-FB67-A044-85D6-68F137258572}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -745,50 +1268,50 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" thickBot="1">
       <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
-        <v>368</v>
+        <v>1022.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" thickBot="1">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
@@ -797,24 +1320,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
-        <v>1022.1</v>
+        <v>1555.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" thickBot="1">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -823,24 +1346,24 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1">
-        <v>1555.1</v>
+        <v>2291.8000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" thickBot="1">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -849,76 +1372,76 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1">
-        <v>2291.8000000000002</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" thickBot="1">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1">
-        <v>971.5</v>
+        <v>1008.4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="33" thickBot="1">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
-        <v>1008.4</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" thickBot="1">
       <c r="A10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -927,102 +1450,102 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1">
-        <v>607</v>
+        <v>1585.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="33" thickBot="1">
       <c r="A11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1">
-        <v>1585.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="33" thickBot="1">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1">
       <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1">
+        <v>1345.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" thickBot="1">
       <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1">
-        <v>1345.2</v>
+        <v>514.9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="33" thickBot="1">
       <c r="A14" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>33</v>
@@ -1031,24 +1554,24 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1">
-        <v>514.9</v>
+        <v>785.8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="33" thickBot="1">
       <c r="A15" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -1057,24 +1580,24 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1">
-        <v>785.8</v>
+        <v>490.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" thickBot="1">
       <c r="A16" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>33</v>
@@ -1083,102 +1606,102 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1">
-        <v>490.1</v>
+        <v>1054.0999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" thickBot="1">
       <c r="A17" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1">
-        <v>1054.0999999999999</v>
+        <v>977.1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="33" thickBot="1">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1">
-        <v>977.1</v>
+        <v>633.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" thickBot="1">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1">
-        <v>633.5</v>
+        <v>580.79999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" thickBot="1">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
@@ -1187,61 +1710,35 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" s="1">
-        <v>580.79999999999995</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="33" thickBot="1">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" s="1">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="33" thickBot="1">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1">
         <v>695</v>
       </c>
     </row>

--- a/result/result_191008_xiehe/information_people.xlsx
+++ b/result/result_191008_xiehe/information_people.xlsx
@@ -8,15 +8,61 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xugang/Documents/c-pycharm/git/sequencing_center/result/result_191008_xiehe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD14A878-AEE9-A040-B8A2-950DD5D4D971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB09264-DCEB-C14C-A01C-06744827ED28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29940" yWindow="-2520" windowWidth="27840" windowHeight="15400" activeTab="1" xr2:uid="{C6039C57-40C4-324F-8FB5-D1DD80537CC4}"/>
+    <workbookView xWindow="-33920" yWindow="-2840" windowWidth="34940" windowHeight="18420" activeTab="3" xr2:uid="{C6039C57-40C4-324F-8FB5-D1DD80537CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet4!$A$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet4!$A$17</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet4!$A$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet4!$A$19</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet4!$B$15:$U$15</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet4!$B$16:$U$16</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet4!$B$17:$U$17</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet4!$B$18:$U$18</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet4!$B$19:$U$19</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet6!$A$1:$T$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet6!$A$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet6!$A$1:$T$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet6!$A$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$B$1:$B$9</definedName>
+    <definedName name="_xlchart.v2.18" hidden="1">Sheet4!$A$16</definedName>
+    <definedName name="_xlchart.v2.19" hidden="1">Sheet4!$A$17</definedName>
+    <definedName name="_xlchart.v2.20" hidden="1">Sheet4!$A$18</definedName>
+    <definedName name="_xlchart.v2.21" hidden="1">Sheet4!$A$19</definedName>
+    <definedName name="_xlchart.v2.22" hidden="1">Sheet4!$B$15:$U$15</definedName>
+    <definedName name="_xlchart.v2.23" hidden="1">Sheet4!$B$16:$U$16</definedName>
+    <definedName name="_xlchart.v2.24" hidden="1">Sheet4!$B$17:$U$17</definedName>
+    <definedName name="_xlchart.v2.25" hidden="1">Sheet4!$B$18:$U$18</definedName>
+    <definedName name="_xlchart.v2.26" hidden="1">Sheet4!$B$19:$U$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
   <si>
     <t>中药-过敏-pbmc</t>
   </si>
@@ -268,13 +314,115 @@
   </si>
   <si>
     <t>B-B10</t>
+  </si>
+  <si>
+    <t>iterm</t>
+  </si>
+  <si>
+    <t>ZXY-A-A10</t>
+  </si>
+  <si>
+    <t>ZXY-A-A1</t>
+  </si>
+  <si>
+    <t>ZXY-A-A2</t>
+  </si>
+  <si>
+    <t>ZXY-A-A3</t>
+  </si>
+  <si>
+    <t>ZXY-A-A4</t>
+  </si>
+  <si>
+    <t>ZXY-A-A5</t>
+  </si>
+  <si>
+    <t>ZXY-A-A6</t>
+  </si>
+  <si>
+    <t>ZXY-A-A7</t>
+  </si>
+  <si>
+    <t>ZXY-A-A8</t>
+  </si>
+  <si>
+    <t>ZXY-A-A9</t>
+  </si>
+  <si>
+    <t>ZXY-B-B10</t>
+  </si>
+  <si>
+    <t>ZXY-B-B1</t>
+  </si>
+  <si>
+    <t>ZXY-B-B2</t>
+  </si>
+  <si>
+    <t>ZXY-B-B3</t>
+  </si>
+  <si>
+    <t>ZXY-B-B4</t>
+  </si>
+  <si>
+    <t>ZXY-B-B5</t>
+  </si>
+  <si>
+    <t>ZXY-B-B6</t>
+  </si>
+  <si>
+    <t>ZXY-B-B7</t>
+  </si>
+  <si>
+    <t>ZXY-B-B8</t>
+  </si>
+  <si>
+    <t>ZXY-B-B9</t>
+  </si>
+  <si>
+    <t>unique mapped reads of RNA</t>
+  </si>
+  <si>
+    <t>unique mapped reads of DNA</t>
+  </si>
+  <si>
+    <t>unique mapped reads of Intron</t>
+  </si>
+  <si>
+    <t>unique mapped ambiguous reads of RNA</t>
+  </si>
+  <si>
+    <t>Iterm</t>
+  </si>
+  <si>
+    <t>Uniquely mapped reads</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapped to too many loci</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>too short</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>too many mismatches</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4104347/14742832=0.2784</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +450,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +520,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,6 +541,4786 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unique mapped reads of RNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$15:$U$15</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5212551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3739952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5563304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4419677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5646374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5391987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3022255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4311596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5234890</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2530451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4889211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4077988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2905535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4512860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4674454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4023451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2394890</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4278533</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4926496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5507002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C2B-9C46-A9A0-5ABCA7812526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unique mapped reads of Intron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$15:$U$15</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5920479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3288269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5495557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6449224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8384662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4957171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3257293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5724921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4973920</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1715392</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4409273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6251319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3578305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5195497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5782776</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4049652</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1416505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7088538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3227533</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5391465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C2B-9C46-A9A0-5ABCA7812526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unique mapped ambiguous reads of RNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$15:$U$15</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$18:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-214405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-181131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-230762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-188910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-228414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-245617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-141981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-177533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-230701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-133559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-225230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-179574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-127925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-199732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-207265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-175193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-125837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-182193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-243468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-240587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C2B-9C46-A9A0-5ABCA7812526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unique mapped reads of DNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$15:$U$15</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$19:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10260970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6484297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10039727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10038495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12881093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9478154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5843900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9195892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9488109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3994646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8576771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9560833</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5941288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8921709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9602503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7326748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3535233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10525438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7457925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9879393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C2B-9C46-A9A0-5ABCA7812526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="985874256"/>
+        <c:axId val="986169408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="985874256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986169408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986169408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="985874256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniquely mapped reads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.68520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64770000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66910000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70320000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67059999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EA3-324B-9DEC-E8875E76ED49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mapped to too many loci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.7400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3599999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.62E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.9700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0399999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EA3-324B-9DEC-E8875E76ED49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>too many mismatches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.21609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21970000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EA3-324B-9DEC-E8875E76ED49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>too short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.92E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.75E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3EA3-324B-9DEC-E8875E76ED49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3EA3-324B-9DEC-E8875E76ED49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="982877200"/>
+        <c:axId val="982784256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="982877200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982784256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="982784256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982877200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Duplication</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>ZXY-A-A10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZXY-A-A1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZXY-A-A2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZXY-A-A3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZXY-A-A4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZXY-A-A5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZXY-A-A6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZXY-A-A7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZXY-A-A8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZXY-A-A9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ZXY-B-B10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ZXY-B-B1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ZXY-B-B2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ZXY-B-B3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZXY-B-B4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZXY-B-B5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ZXY-B-B6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ZXY-B-B7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ZXY-B-B8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ZXY-B-B9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.27839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2341</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0694-B34F-A521-D85CC9723F11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1035933232"/>
+        <c:axId val="1039701712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1035933232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039701712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039701712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035933232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2BDB4EAC-517B-CE4B-A57F-CB1808556E95}">
+          <cx:dataLabels pos="l">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{826A163C-DAF7-AA47-AAC5-AC0EB98845C4}">
+          <cx:dataLabels pos="l">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="图表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391332A1-C3E3-DB4B-A998-ED8C492537D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6407150" y="2114550"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0CF0DC-F96D-D44C-9B61-26B678AD9C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADD1940-C25B-4F4E-9405-9E090FEFD680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35493AC9-8815-FB41-BC39-CDF5CEB81F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,7 +6132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369A022-FB67-A044-85D6-68F137258572}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
@@ -1746,4 +6686,1425 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EBE5F1-B7DD-EB4B-AD51-32B8C3C1965B}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61892B56-AB06-3244-815A-2345D38C70C3}">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21">
+      <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="21">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5212551</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3739952</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5563304</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4419677</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5646374</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5391987</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3022255</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4311596</v>
+      </c>
+      <c r="J2" s="6">
+        <v>5234890</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2530451</v>
+      </c>
+      <c r="L2" s="6">
+        <v>4889211</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4077988</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2905535</v>
+      </c>
+      <c r="O2" s="6">
+        <v>4512860</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4674454</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>4023451</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2394890</v>
+      </c>
+      <c r="S2" s="6">
+        <v>4278533</v>
+      </c>
+      <c r="T2" s="6">
+        <v>4926496</v>
+      </c>
+      <c r="U2" s="6">
+        <v>5507002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="21">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5920479</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3288269</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5495557</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6449224</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8384662</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4957171</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3257293</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5724921</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4973920</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1715392</v>
+      </c>
+      <c r="L3" s="6">
+        <v>4409273</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6251319</v>
+      </c>
+      <c r="N3" s="6">
+        <v>3578305</v>
+      </c>
+      <c r="O3" s="6">
+        <v>5195497</v>
+      </c>
+      <c r="P3" s="6">
+        <v>5782776</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>4049652</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1416505</v>
+      </c>
+      <c r="S3" s="6">
+        <v>7088538</v>
+      </c>
+      <c r="T3" s="6">
+        <v>3227533</v>
+      </c>
+      <c r="U3" s="6">
+        <v>5391465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="21">
+      <c r="A4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6">
+        <v>214405</v>
+      </c>
+      <c r="C4" s="6">
+        <v>181131</v>
+      </c>
+      <c r="D4" s="6">
+        <v>230762</v>
+      </c>
+      <c r="E4" s="6">
+        <v>188910</v>
+      </c>
+      <c r="F4" s="6">
+        <v>228414</v>
+      </c>
+      <c r="G4" s="6">
+        <v>245617</v>
+      </c>
+      <c r="H4" s="6">
+        <v>141981</v>
+      </c>
+      <c r="I4" s="6">
+        <v>177533</v>
+      </c>
+      <c r="J4" s="6">
+        <v>230701</v>
+      </c>
+      <c r="K4" s="6">
+        <v>133559</v>
+      </c>
+      <c r="L4" s="6">
+        <v>225230</v>
+      </c>
+      <c r="M4" s="6">
+        <v>179574</v>
+      </c>
+      <c r="N4" s="6">
+        <v>127925</v>
+      </c>
+      <c r="O4" s="6">
+        <v>199732</v>
+      </c>
+      <c r="P4" s="6">
+        <v>207265</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>175193</v>
+      </c>
+      <c r="R4" s="6">
+        <v>125837</v>
+      </c>
+      <c r="S4" s="6">
+        <v>182193</v>
+      </c>
+      <c r="T4" s="6">
+        <v>243468</v>
+      </c>
+      <c r="U4" s="6">
+        <v>240587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21">
+      <c r="A5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10260970</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6484297</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10039727</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10038495</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12881093</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9478154</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5843900</v>
+      </c>
+      <c r="I5" s="6">
+        <v>9195892</v>
+      </c>
+      <c r="J5" s="6">
+        <v>9488109</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3994646</v>
+      </c>
+      <c r="L5" s="6">
+        <v>8576771</v>
+      </c>
+      <c r="M5" s="6">
+        <v>9560833</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5941288</v>
+      </c>
+      <c r="O5" s="6">
+        <v>8921709</v>
+      </c>
+      <c r="P5" s="6">
+        <v>9602503</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>7326748</v>
+      </c>
+      <c r="R5" s="6">
+        <v>3535233</v>
+      </c>
+      <c r="S5" s="6">
+        <v>10525438</v>
+      </c>
+      <c r="T5" s="6">
+        <v>7457925</v>
+      </c>
+      <c r="U5" s="6">
+        <v>9879393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6">
+        <f>0-B4</f>
+        <v>-214405</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C4:U6" si="0">0-C4</f>
+        <v>-181131</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-230762</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-188910</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-228414</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-245617</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-141981</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-177533</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-230701</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-133559</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-225230</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-179574</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-127925</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-199732</v>
+      </c>
+      <c r="P6">
+        <f>0-P4</f>
+        <v>-207265</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-175193</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-125837</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-182193</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-243468</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>-240587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>14742832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>4104347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <f>A9-A10</f>
+        <v>10638485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="21">
+      <c r="B12" s="6">
+        <v>14863934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="21">
+      <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="21">
+      <c r="A16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5212551</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3739952</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5563304</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4419677</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5646374</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5391987</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3022255</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4311596</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5234890</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2530451</v>
+      </c>
+      <c r="L16" s="6">
+        <v>4889211</v>
+      </c>
+      <c r="M16" s="6">
+        <v>4077988</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2905535</v>
+      </c>
+      <c r="O16" s="6">
+        <v>4512860</v>
+      </c>
+      <c r="P16" s="6">
+        <v>4674454</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>4023451</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2394890</v>
+      </c>
+      <c r="S16" s="6">
+        <v>4278533</v>
+      </c>
+      <c r="T16" s="6">
+        <v>4926496</v>
+      </c>
+      <c r="U16" s="6">
+        <v>5507002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="21">
+      <c r="A17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5920479</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3288269</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5495557</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6449224</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8384662</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4957171</v>
+      </c>
+      <c r="H17" s="6">
+        <v>3257293</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5724921</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4973920</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1715392</v>
+      </c>
+      <c r="L17" s="6">
+        <v>4409273</v>
+      </c>
+      <c r="M17" s="6">
+        <v>6251319</v>
+      </c>
+      <c r="N17" s="6">
+        <v>3578305</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5195497</v>
+      </c>
+      <c r="P17" s="6">
+        <v>5782776</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>4049652</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1416505</v>
+      </c>
+      <c r="S17" s="6">
+        <v>7088538</v>
+      </c>
+      <c r="T17" s="6">
+        <v>3227533</v>
+      </c>
+      <c r="U17" s="6">
+        <v>5391465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="21">
+      <c r="A18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>-214405</v>
+      </c>
+      <c r="C18">
+        <v>-181131</v>
+      </c>
+      <c r="D18">
+        <v>-230762</v>
+      </c>
+      <c r="E18">
+        <v>-188910</v>
+      </c>
+      <c r="F18">
+        <v>-228414</v>
+      </c>
+      <c r="G18">
+        <v>-245617</v>
+      </c>
+      <c r="H18">
+        <v>-141981</v>
+      </c>
+      <c r="I18">
+        <v>-177533</v>
+      </c>
+      <c r="J18">
+        <v>-230701</v>
+      </c>
+      <c r="K18">
+        <v>-133559</v>
+      </c>
+      <c r="L18">
+        <v>-225230</v>
+      </c>
+      <c r="M18">
+        <v>-179574</v>
+      </c>
+      <c r="N18">
+        <v>-127925</v>
+      </c>
+      <c r="O18">
+        <v>-199732</v>
+      </c>
+      <c r="P18">
+        <v>-207265</v>
+      </c>
+      <c r="Q18">
+        <v>-175193</v>
+      </c>
+      <c r="R18">
+        <v>-125837</v>
+      </c>
+      <c r="S18">
+        <v>-182193</v>
+      </c>
+      <c r="T18">
+        <v>-243468</v>
+      </c>
+      <c r="U18">
+        <v>-240587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="21">
+      <c r="A19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="6">
+        <v>10260970</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6484297</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10039727</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10038495</v>
+      </c>
+      <c r="F19" s="6">
+        <v>12881093</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9478154</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5843900</v>
+      </c>
+      <c r="I19" s="6">
+        <v>9195892</v>
+      </c>
+      <c r="J19" s="6">
+        <v>9488109</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3994646</v>
+      </c>
+      <c r="L19" s="6">
+        <v>8576771</v>
+      </c>
+      <c r="M19" s="6">
+        <v>9560833</v>
+      </c>
+      <c r="N19" s="6">
+        <v>5941288</v>
+      </c>
+      <c r="O19" s="6">
+        <v>8921709</v>
+      </c>
+      <c r="P19" s="6">
+        <v>9602503</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>7326748</v>
+      </c>
+      <c r="R19" s="6">
+        <v>3535233</v>
+      </c>
+      <c r="S19" s="6">
+        <v>10525438</v>
+      </c>
+      <c r="T19" s="6">
+        <v>7457925</v>
+      </c>
+      <c r="U19" s="6">
+        <v>9879393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015DEACA-48E6-2742-9159-4E1ECAA960B0}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21">
+      <c r="A1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="21">
+      <c r="A2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.68059999999999998</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.71230000000000004</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.67059999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="21">
+      <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="M3" s="7">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="N3" s="7">
+        <v>5.62E-2</v>
+      </c>
+      <c r="O3" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P3" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.1245</v>
+      </c>
+      <c r="S3" s="7">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.1193</v>
+      </c>
+      <c r="U3" s="7">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="21">
+      <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.2341</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.2213</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.2072</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.2344</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.2092</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.2099</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.2112</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.2324</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.1991</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0.21970000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.92E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.12E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.52E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3.04E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2.69E-2</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="S5" s="7">
+        <v>2.24E-2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="U5" s="7">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="21">
+      <c r="A6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.8E-3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R6" s="7">
+        <v>3.8E-3</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1.4E-3</v>
+      </c>
+      <c r="T6" s="7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFA0586-33A4-4D43-8F60-A414BD3C71A6}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="B2">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.2084</v>
+      </c>
+      <c r="F2">
+        <v>0.44569999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.21</v>
+      </c>
+      <c r="I2">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.67059999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.2341</v>
+      </c>
+      <c r="O2">
+        <v>0.2152</v>
+      </c>
+      <c r="P2">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="R2">
+        <v>0.1777</v>
+      </c>
+      <c r="S2">
+        <v>0.4325</v>
+      </c>
+      <c r="T2">
+        <v>0.2954</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>